--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_14.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,686 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05499181669394435</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1282051282051282</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:7', 'D', 'D:min', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:12.823786', '0:00:18.895804')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:03.080000', '0:00:13.480000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07899515738498789</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D/6', 'D/5', 'G'], ['D', 'G', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['D', 'D/b7', 'G/3'], ['D', 'G', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:37.436938', '0:00:41.361111'), ('0:00:18.013446', '0:00:21.856349'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:22.484897', '0:00:26.153650'), ('0:00:00.440395', '0:00:03.583854'), ('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(27.2, 41.84)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.36, 6.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.88, 32.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
